--- a/PRODUTOS/Frios/Frios - Iogurtes.xlsx
+++ b/PRODUTOS/Frios/Frios - Iogurtes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Iogurte Natural Vigor 150g Integral</t>
+          <t>Sobremesa Lactea Flan Batavo 200g Caramelo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c552cd23-26ae-43fd-b2a3-838dafddbf65.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d0ef983-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898755200126</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Iogurte Natural Serramar 170g Tradicional</t>
+          <t>Suco Yakult Maca 200ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93ae1513-be85-4ec5-a737-a322c81b78ae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f7d2917-d577-477e-be90-bb1f068d15fb.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891156040018</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bebida Láctea Danone Yopro Chocolate 250ml</t>
+          <t>Bebida A Base De Soja Yakult Tonyu 200ml Morango</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f40fae4f-38d3-4af4-a297-1258c76b301e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fb657ef-e42c-4d6a-aa5f-8200ada280c9.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891156044016</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bebida Láctea Polpa Elege 510g Morango</t>
+          <t>Iogurte Frutap 450g Mix</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4ccc59b-8969-4bbb-9e0a-175d03530b0b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/073e7529-fc51-4382-9f34-01ae32c2d25c.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896862000684</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Iogurte Desnatado Morango Zero Lactose Batavo Pense Zero Pedaços 100g</t>
+          <t>Iogurte Pedaço Fruta Batavo 500g Morango</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18e76402-ded5-4e9f-8de4-d549f16e3879.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1e948cd-ec20-4ca9-9b6c-3a0d1f9b93f4.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891097010781</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Iogurte Danone Morango 1250g</t>
+          <t>Iogurte Frutap 180g Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d9ac763-e94d-4d3e-9fcf-9f0c3bcea1c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f90ae008-195f-4583-aa73-232486bd93bc.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896862000844</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Leite Fermentado Yakult 480g C/6un</t>
+          <t>Iogurte Frutap 180g Morango</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55ad58a4-b126-476e-8f6b-a3aba3ff5f9d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28c315e7-489e-4720-8f9a-918dbf75f591.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896862000875</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Suco Yakult Maca 200ml</t>
+          <t>Iogurte Frutap 850g Coco</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f7d2917-d577-477e-be90-bb1f068d15fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e13c7c80-4234-4eab-acd9-7f89385b9de4.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896862000417</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pudim De Leite Condens Rebeka 120g</t>
+          <t>Iogurte Frutap 850g Mix</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1a43c19-01e4-4afe-bfa7-5c3223feab59.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d136147b-0ee2-41a0-95a2-bdcd5e5559dc.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896862000684</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Tradicional</t>
+          <t>Iogurte Frutap 850g Morango</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39368b79-e8c0-4f49-9cc6-2a43473d4487.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49e5a5f3-063d-42e5-8182-cfb9e51a5044.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896862000875</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Iogurte Natural Serramar 170g Laranja Cenoura E Mel</t>
+          <t>Iogurte Coco Fazenda Bela Vista 500g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/392e65e5-ab9f-4d98-9db4-a089a5497978.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92f07561-f2b3-4f2a-a840-2fb862795884.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896229800506</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Iogurte Natural Vigor 150g Desnatado</t>
+          <t>Iogurte Frutap 850g Ameixa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5e76c8e-0897-4300-9619-aad045f7ffb2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e56c4665-c97d-43fb-b2ba-0489aff6c54c.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896862000202</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Iogurte Grego Batavo Pense 100g Tradicional</t>
+          <t>Danette Danone 360g Chocolate</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8294206e-9f0e-4e4a-8f42-eba19f2ad2c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad56987d-d766-402a-8be2-8b9a45aef226.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891025110897</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Iogurte Natural Serramar 170g Ameixa</t>
+          <t>Danette Danone 360g Choc Bco</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4feae4bb-da65-4baa-a9a6-613286835c31.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58d6542f-cd93-4d14-be4c-4c4b64c6b064.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891025200680</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Danoninho Para Levar 70g Morango</t>
+          <t>Iogurte Frutap 850g Batido</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40a321df-1672-40c5-a37f-db0386b425f3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7810076c-2b2c-47b8-8b8e-e11139f31090.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896862001018</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sobremesa Creamy Batavo 90g Choco/chantilly</t>
+          <t>Iogurte Danone Líquido 170g Morango</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7842b862-f99c-4d29-9062-718dba50a472.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/701b39ce-a6f7-4394-a2cf-8a864bd52481.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891025124863</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Iogurte Batavo Grego 100g Morango Zero</t>
+          <t>Bebida Láctea Frutilac 850g Coco</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,89</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cec6426-6f11-4aa9-be7c-39359f04ee82.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4246e1b-009a-4d2b-b8fa-3cd5b67d8d81.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896862001216</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Iogurte Natural Vigor 150g Laranja/cenoura/mel</t>
+          <t>Iogurte Frutap 480g Morango/coco</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4003073-b405-46af-88b3-e69874d5a455.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59395b04-ceed-4bd3-b8c3-0a304de2ed76.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896862000875</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Iogurte Natural Serramar 170g Mel</t>
+          <t>Leite Fermentado Activia Danone 170g Morango</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1bf3893-ae29-4b62-873f-de0406ce1bca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be5482f0-78d1-4916-a619-7d4773b87cef.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Iogurte Natural Vigor 150g Ameixa</t>
+          <t>Danoninho Petit Suisse 480g Morango</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88eda24b-7337-43d7-a17a-23ee1e34ddaf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/171976c1-fd32-44ec-aa7b-dde06d448495.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891025109938</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Frutas Vermelhas</t>
+          <t>Danoninho Petit Suisse 320g Morango</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47c7e92b-cb0d-4fb2-9b22-ab193f7f7986.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec810a6-4bdc-443a-9121-145c94b6a1ca.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891025109884</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bebida Lactea Yopro 250ml Morango</t>
+          <t>Danoninho Petit Suisse 320g Mor/ban/maç</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/998b3527-52e8-4eeb-9c2d-f2474b404f2b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4ad9ec6-8f23-4c56-ac20-5610d23eaea0.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891025109884</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bebida Láctea Frutilac 100g Com Morango</t>
+          <t>Danoninho Para Levar 70g Morango</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d260ac7-bba5-4caf-8db3-6c488847abe1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40a321df-1672-40c5-a37f-db0386b425f3.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891025112983</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Iogurte Natural Vigor 150g Mel</t>
+          <t>Danette Danone 180g Chocolate</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16f4d747-2148-4937-b4f5-6bcd44e966e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c28581be-e7a1-4e1d-a769-c0ce704c2fd1.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891025110897</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor Zero 90g Tradicional</t>
+          <t>Danoninho Para Levar 70g Morango E Banana</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b8d071b-a532-4634-85e9-9b9e94cc8f37.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6926833-7ebf-464e-9499-2cc52b76d24a.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891025112983</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bebida Láctea Danone 250ml Yopro Batata Doce</t>
+          <t>Sobremesa Vigor 180g Chocolate</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f459d287-124e-480b-93fa-2eea6b105047.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e367c2d7-d5f6-4ac9-9749-69b2bbb4ec4f.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891999014153</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Iogurte Danone Grego 90g Frutas Vermelhas</t>
+          <t>Coalhada Serramar 170g Cp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bba1cc00-1a2c-4abb-bb6a-42abaca804a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/583d3027-d37b-4292-bfc0-266cd2f0dd67.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7897951610333</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Iogurte Integral Serramar 170g Morango</t>
+          <t>Iog Whey 250g Morango Vc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fbe8179-9927-459d-9992-22ad78a9b5fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/684a15d5-1567-4bea-a9c7-a11c6eec4bf3.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898958161507</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Iogurte Danone Grego 90g Tradicional</t>
+          <t>Iogurte Lacfree Verde Campo 500g Banana Maça E Mamão</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16e31a1a-bbee-4249-a82b-5434ff16c697.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dddc8cb0-7f0d-45a0-9c52-d696ce22a93b.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898205923940</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Flocos</t>
+          <t>Iog Lacfree 500g S/adoc Natural Vc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/253022a8-30ad-47e2-8d2f-b6dbbd084aaa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9da6da8e-8358-4587-a75a-417adebb867c.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898205923988</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Iogurte Danone Natural 160g Mel</t>
+          <t>Iogurte Batavo Grego 100g Morango Zero</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2104803b-ecaf-44fe-a493-eb674710fcf0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cec6426-6f11-4aa9-be7c-39359f04ee82.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891025125372</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Coalhada Serramar 170g Cp</t>
+          <t>Leite Ferm Elege 80g Bob Esp Mgo C/6</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/583d3027-d37b-4292-bfc0-266cd2f0dd67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e97be1e1-618b-455f-aca6-ba1be22332b2.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891097101977</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Iogurte Danone Vitamina De Frutas 1250g</t>
+          <t>Leite Ferm Elege 80g Bob Esp Uva C/6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c6e0a4a-ed0f-4b8b-ab31-35dcb64e6dd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2783462-2513-455e-8b1e-8760e92e74b1.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891097101991</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor Zero 90g Morango</t>
+          <t>Iogurte Corpus Líquido Sem Lactose 170g Morango</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b4a87d9-683b-497c-a704-72bf40b09007.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f005cc24-e9b6-49df-a543-646137e6aeb5.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7891025114406</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Iogurte Danone Líquido 170g Morango</t>
+          <t>Iogurte Pedaço Batavo 100gr Morango</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/701b39ce-a6f7-4394-a2cf-8a864bd52481.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4f2ff40-fabd-472d-9589-7549b0a0a296.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7891097104862</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Danoninho P/beber 100g Morango</t>
+          <t>Bebida Láctea Danone 250ml Yopro Banana</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c8e96c2-f986-4fbb-9f7d-c73cad548c4f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7647b26-1e9f-41fc-b1db-ad86fc7386ae.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7891025115632</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Iogurte Fazenda Bela Vista 170g Com Mel</t>
+          <t>Bebida Láctea Danone 250ml Yopro Batata Doce</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdfc27ab-92b9-41d4-abe6-bd402ebae129.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f459d287-124e-480b-93fa-2eea6b105047.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891025115649</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bebida Láctea Frutilac 130g Com Polpa Morango</t>
+          <t>Iogurte Yopro Danone 15g Proteina 160g Morango</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 2,39</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78435338-f431-4e32-adba-f1db1739fe45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77c8ed47-498c-472f-a4f6-29f0cdb03d70.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7891025115311</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Iogurte Danone Natural 160g Cenoura Mel</t>
+          <t>Leite Fermentado Cafe Manha Activia 170g Amaranto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,79</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a164892-2884-4ace-9ae6-0c433addbe97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd16155f-1bb1-417a-8eb1-33a6ffca507b.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Iogurte Fazenda Bela Vista 170g Laranja/cenoura/mel</t>
+          <t>Leite Fermentado Cafe Manha Activia 170g Linhaca/morango</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 7,79</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbbabb35-f0f4-4d4e-918b-73b183efaf1c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed2d2f3b-9d56-4b45-9bb8-bef0c9fec2a9.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bebida Láctea Danone 250ml Yopro Banana</t>
+          <t>Iogurte Liquido Yopro Danone 15g Proteina 250g Morango</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7647b26-1e9f-41fc-b1db-ad86fc7386ae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfd80b75-5b78-4f97-a57c-41da2a9ab799.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891025124481</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Ninho 170g Maça E Banana</t>
+          <t>Iogurte Danone Natural 160g Desnatado</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2d5adf1-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a36885a9-e3b5-4fe7-b4f3-e3c12bbc1d87.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7891025120223</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Blueberry</t>
+          <t>Iogurte Integral Danone 160g Natural</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17cae85b-aa12-4535-9053-92abb0c41d62.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d96b5d58-c4ce-42b1-b0bb-94338377f250.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7891025120230</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Danoninho Petit Suisse 480g Morango</t>
+          <t>Iog Batavo Surpresa 110g Morango</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/171976c1-fd32-44ec-aa7b-dde06d448495.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6462e76-ceb5-438d-b83a-d5154216ebdb.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7891097104862</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Coalhada Vigor 150g</t>
+          <t>Iogurte Grego Batavo 450g Pense Zero Morango</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87a8d7bc-2204-43c3-9b8b-45fcb8d76b6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8523946-ba94-4b81-a126-f285f7b7f22c.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891097000140</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Frutas Amarelas</t>
+          <t>Iogurte Grego Batavo Pense 100g Tradicional</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1113ad42-8116-4d00-892d-7489f171e767.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8294206e-9f0e-4e4a-8f42-eba19f2ad2c0.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891097000133</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sobremesa Lactea Danette Danone 540g Chocolate</t>
+          <t>Iog Batavo Pense 1,150kg Zero Morango</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 19,49</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f90c6c5-d97c-4ce6-a7a3-21edc4098c06.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a99c529c-f664-43f9-861b-863bb1e80b47.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891097107016</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Danoninho Petit Suisse 320g Mor/ban/maç</t>
+          <t>Iogurte Danone Morango 1250g</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4ad9ec6-8f23-4c56-ac20-5610d23eaea0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d9ac763-e94d-4d3e-9fcf-9f0c3bcea1c1.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7891025124481</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sobremesa Itambe 90g Chocolate E Chantilly</t>
+          <t>Bebida Láctea Danone Kids 510g Morango</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f464762c-7f2f-4fb6-a110-f4a90abdd464.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85b00744-b70f-4f23-b078-7814c2f7c389.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891025121640</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Danoninho Petit Suisse 320g Morango</t>
+          <t>Yopro Pouch Açai C/banana 160g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec810a6-4bdc-443a-9121-145c94b6a1ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b57754a-93c8-480f-a867-670db55a812d.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891025121442</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Iogurte Corpus Líquido Sem Lactose 170g Morango</t>
+          <t>Iog Prob Morango 170g Vc</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,39</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f005cc24-e9b6-49df-a543-646137e6aeb5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24b0ffe4-339b-46ce-9369-03d77c51b01c.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891025114406</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 180g Morango</t>
+          <t>Iogurte 3 Grãos Manga E Maracujá Viv Vigor Garrafa 800g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28c315e7-489e-4720-8f9a-918dbf75f591.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4708fc8a-aad0-441c-bc31-2821928c6378.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896625210527</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bebida Lactea Polpa Todo Dia Vigor 510g Vitamina De Frutas</t>
+          <t>Iogurte Liquido Vigor 800g 3 Grãos Tradicional</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/984ece39-8c27-4bc1-b3bd-f66d01887f93.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2f11763-a44f-4e8c-9086-ab67bb4b8a0d.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896625210541</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Iogurte Danone Grego 90g Flocos</t>
+          <t>Danoninho Ice Mix Pouch 70g Morango</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa8ee0f8-c2b5-4a49-9a46-da6141f6cbac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7126c8ce-0ba0-435e-aea4-024c72244d2f.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891025122241</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Danoninho P/beber 100g Bana/maca</t>
+          <t>Bebida Lactea Yopro 250ml Morango</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3c94a65-1923-434f-b708-f9bbbc61b1c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/998b3527-52e8-4eeb-9c2d-f2474b404f2b.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891156061013</t>
         </is>
       </c>
     </row>
@@ -1946,7 +2226,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Iogurte Líquido Danone 170g Vitamina De Frutas</t>
+          <t>Coalhada Vigor 150g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1956,7 +2236,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0b11b87-5eb6-494e-9ba4-43eb3c804b57.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87a8d7bc-2204-43c3-9b8b-45fcb8d76b6e.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896625210718</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bebida Láctea Frutilac 1200g Morango</t>
+          <t>Iogurte Natural Vigor 150g Ameixa</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/befbe882-664c-469e-a94d-d4837320f101.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88eda24b-7337-43d7-a17a-23ee1e34ddaf.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896625210756</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 180g Frutas Vermelhas</t>
+          <t>Iogurte Natural Vigor 150g Desnatado</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f90ae008-195f-4583-aa73-232486bd93bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5e76c8e-0897-4300-9619-aad045f7ffb2.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896625210749</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bebida Lactea Polpa Todo Dia Vigor 510g Morango</t>
+          <t>Iogurte Natural Vigor 150g Integral</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71049128-d54d-499e-8c6d-93dbe59e47c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c552cd23-26ae-43fd-b2a3-838dafddbf65.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896625210763</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Iogurte Danone Kids 150g Morango</t>
+          <t>Iogurte Natural Vigor 150g Laranja/cenoura/mel</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/188ad4ee-8e2d-486e-a614-970ae594c601.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4003073-b405-46af-88b3-e69874d5a455.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896625210732</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 850g Morango</t>
+          <t>Iogurte Liquido Molico 170g Morango</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 3,89</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49e5a5f3-063d-42e5-8182-cfb9e51a5044.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/062713cb-e48d-402a-a12b-23578cc8cf34.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891000305812</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Iogurte Danone 1250g Coco</t>
+          <t>Iogurte Liquido Nestle 1,250kg Morango</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 19,59</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/375d67f5-8690-4b50-bbfe-d2d340fcecd9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc444023-3769-4b51-abe1-ce603c1868e9.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891000244265</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Iogurte Grego Batavo Pense 100g Maracuja</t>
+          <t>Iogurte Liquido Nestle 170g Morango</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbf20b6d-1057-41c6-8eed-c7cd1f381b7a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aa92956-92d5-4d20-84e7-959bbd9c0504.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7891000244265</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2482,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Morango/baunilha</t>
+          <t>Iogurte Liquido Ninho 170g Maça E Banana</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2172,7 +2492,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cb8dca7-7cbf-4506-93c4-ddbb06cc3501.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2d5adf1-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891000103852</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bebida Lactea Frutilac Sache 850g Morango</t>
+          <t>Iogurte Liquido Ninho 850g Maça E Banana</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 6,89</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d73687d-c4df-4f47-84ac-6698498a515b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/051dd29e-933c-4861-acd8-16606a7640f1.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891000261002</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Nestle 1,250kg Morango</t>
+          <t>Iogurte Nestlé 160g Natural Desnatado</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc444023-3769-4b51-abe1-ce603c1868e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df23dbcc-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7891025120223</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Danoninho Para Levar 70g Morango E Banana</t>
+          <t>Leite Fermentado Chamyto 450g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6926833-7ebf-464e-9499-2cc52b76d24a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bf4f815-de62-453d-8624-632aa1e46cec.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7891000027974</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Iog Batavo Pense 1,150kg Zero Morango</t>
+          <t>Iogurte Grego Vigor 90g Frutas Amarelas</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 19,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a99c529c-f664-43f9-861b-863bb1e80b47.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1113ad42-8116-4d00-892d-7489f171e767.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896625211128</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Molico 170g Morango</t>
+          <t>Iogurte Grego Vigor 90g Tradicional</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/062713cb-e48d-402a-a12b-23578cc8cf34.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39368b79-e8c0-4f49-9cc6-2a43473d4487.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896625211142</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Iogurte Vigor Natural 100g 3 Grãos Tradicional</t>
+          <t>Iogurte Grego Vigor 90g Morango/baunilha</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/249fc51c-2fd9-4570-ba44-f61406ed8f0d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cb8dca7-7cbf-4506-93c4-ddbb06cc3501.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896625211098</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Iogurte Petit Batavo Shrek 320gr Morango</t>
+          <t>Iogurte Nestle Grego 360g Tradicional</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d616470-cee2-4388-92d9-8c2301faec69.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ff1ba1d-50a1-4315-ba21-b8e42ec9526f.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7891000360583</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Batavo 1,150kg Morango</t>
+          <t>Iogurte Polpa Nestle 510g Morango</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dc735d3-a085-441e-90a0-dcddc85cccf2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a60023d-4f9d-4fb6-addc-b2e18232bf18.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7891000362037</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Iogurte Coco Fazenda Bela Vista 500g</t>
+          <t>Iogurte Polpa Neston 510g 2 Sabores</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92f07561-f2b3-4f2a-a840-2fb862795884.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39353e32-af66-4d72-9c57-15f5e6c62655.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7891025124436</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Yopro Energy Boost 15g Proteina 250ml Cafe Expresso</t>
+          <t>Leite Fermentado Chamyto Big 720g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f75fa095-0c14-40e3-881d-01f86bf630c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eb1e6e0-3bbd-4ca4-9fe1-97c84dc603e1.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7891000027974</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sobremesa Lactea Flan Batavo 200g Caramelo</t>
+          <t>Sobremesa Lactea Danette Danone 540g Chocolate Branco</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d0ef983-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cd45da1-4030-452d-b1df-8fbbaf4c44e7.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891025110897</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Iogurte Mix Vigor Cereais 140g Sucrilhos</t>
+          <t>Sobremesa Lactea Danette Danone 540g Chocolate</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edec3a5a-144a-42c4-a03b-e8e175ba297c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f90c6c5-d97c-4ce6-a7a3-21edc4098c06.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891025110897</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Leite Fer Actimel Danone 100g Original</t>
+          <t>Leite Fermentado Activia 340g Aveia</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cbde87f-009d-4087-a6a9-a86708b3c292.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3892b752-95b6-4de4-805f-51dab9d44c68.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Nestle 170g Morango</t>
+          <t>Bebida Lactea Yopro 1l Chocolate</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aa92956-92d5-4d20-84e7-959bbd9c0504.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/280afcbd-85bf-4f6f-85f8-b7c7e477bc52.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Iogurte Fazenda Bela Vista 170g Coco Copo</t>
+          <t>Iogurte Danone Grego 90g Tradicional</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/361eb142-9116-43cf-91cd-1283fe3869fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16e31a1a-bbee-4249-a82b-5434ff16c697.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891025123064</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Iogurte Mix Vigor Cereais 140g Cobertura De Chocolate</t>
+          <t>Leite Fermentado Activia 510g Mamao E Cereais</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 18,49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed8821de-1db4-487f-b288-4ca3071b6ab4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82a09d5c-5a75-4e68-8858-59cc959ff6b4.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Leite Ferm Family Frutap 850g</t>
+          <t>Leite Fermentado Activia 510g Morango</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 18,49</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/544271fa-a62f-4583-8afd-ec1038171a73.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99c0816b-b170-44dc-a60f-ee9ba389e325.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 850g Frutas Vermelhas</t>
+          <t>Bebida Vida Veg 700g Amêndoas</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aab9ea6d-6ff9-40a0-ba29-c57c1f3a5984.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce78dcaf-d0f5-4382-ac4d-f643141c78d8.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7898958161460</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 180g Frutas Tropicais</t>
+          <t>Bebida Vida Veg 700g Coco</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21786dfb-472a-46f8-bad1-3cdb510ee8ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae9162d7-7da6-4fa2-81e2-d3cb0c587d74.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7898958161460</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Iogurte Chamyto 130g Morango Cereais Chocolate</t>
+          <t>Bebida Veg Notmilk 1l Chocolate</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7bb28d2-15e2-4ef5-9c3a-5a158d75a4ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6695484-755e-4878-ab93-13d23b4cf13c.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7898686950282</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia Danone 800g Ameixa</t>
+          <t>Bebida Veg Notmilk 1l Integral</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/473ab44f-73e9-4b9d-a919-026fe8f9d5f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e088509e-7bb1-4320-8fce-67f62b4b5829.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7898686950305</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Iogurte Danone Com 10g Proteina 160g Morango</t>
+          <t>Bebida Veg Notmilk 1l Semi Desnatado</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1124046a-1c3e-4ba1-ac5a-5030332835da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee928a96-960f-41c9-a029-e3461729a9dd.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7898686950305</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bebida Lactea Lakio Serramar Sc 850g Morango</t>
+          <t>Iogurte Vida Veg Banana, Mamão E Maçã 500g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c36a319f-85a0-48a0-8823-d060a78937fd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55cef77d-05c4-40b8-be7b-509cb0720b8f.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7898958161040</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Iogurte Nestlé 170g Natural Cenoura/laranja</t>
+          <t>Iogurte Vida Veg 500g Morango</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e9954b8-ac4c-4755-a466-465fd02b8047.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4e97272-d5fd-4044-bc45-31086096a89b.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7898958161033</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Iogurte Yopro Danone 15g Proteina 160g Morango</t>
+          <t>Bebida A Base De Aveia Naveia 1l Original</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77c8ed47-498c-472f-a4f6-29f0cdb03d70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29bea948-51d0-4dea-b478-cfc291f44bc3.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7898971454136</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sobremesa Torta Frutap 90g Morango</t>
+          <t>Iogurte Protein Vida Veg Pote 160g Morango</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2c470db-ab7d-4997-aae1-53cca3f2668d.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7898958161507</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 850g Batido</t>
+          <t>Mousse De Chocolate Vida Veg 200g</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7810076c-2b2c-47b8-8b8e-e11139f31090.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/070fc182-abe9-41cb-9195-2f411eb2b575.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7898958161798</t>
         </is>
       </c>
     </row>
@@ -2918,7 +3378,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 480g Morango/coco</t>
+          <t>Sobremesa Flan Baunilha Vigor 190g</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2928,7 +3388,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59395b04-ceed-4bd3-b8c3-0a304de2ed76.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5eeb494b-fd78-48c6-a28c-6c6ea1ae008d.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7896625211210</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Leite Fermentado Cafe Da Manha Activia 170g Quinoa/frutas Vermelhas</t>
+          <t>Iogurte Mix Vigor Cereais 140g Cobertura De Chocolate</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 7,79</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daf2a0cb-9460-4c57-9f91-f0814e78ad94.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed8821de-1db4-487f-b288-4ca3071b6ab4.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7896625210855</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pudim Leite Condensando Batavo 100g</t>
+          <t>Iogurte Mix Vigor Cereais 140g Sucrilhos</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b436010f-578e-407a-8b24-a7a7536329e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edec3a5a-144a-42c4-a03b-e8e175ba297c.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7896625210879</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sobremesa Lactea Cremosa Batavo 180g Chocolate</t>
+          <t>Iogurte Mix Vigor Viv 140g Granola Banana Mel</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a9ecbb8-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56096524-cbb7-4f1e-8dd6-0d21fa22b91e.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896625210831</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Danette Danone 360g Choc Bco</t>
+          <t>Iogurte Mix Vigor Viv 140g Granola Cacau</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58d6542f-cd93-4d14-be4c-4c4b64c6b064.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86f75ba0-27da-43d4-8e95-ff5fed299b45.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896625210817</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Yopro Energy Boost 15g Proteina 250ml Cappuccino</t>
+          <t>Bebida Lactea Polpa Todo Dia Vigor 510g Vitamina De Frutas</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7837d4c5-0144-4b10-9ea4-60c33a4ba03f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/984ece39-8c27-4bc1-b3bd-f66d01887f93.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896625211258</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 480g Morango</t>
+          <t>Iogurte Frutap 115g Morango Cereais Coloridos</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c42727eb-5e1c-4192-a534-c88b8d0e21c2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74db208e-6953-4169-b705-775ec353206a.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896862002664</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia 450g</t>
+          <t>Iogurte Frutap 450g Pedaços De Morango</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 9,89</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2025eeaa-c48c-4291-9c5c-484faed24f51.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2a18853-3f1d-4b71-b1f6-1ab79436478e.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7896862001605</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Vigor 800g Batido</t>
+          <t>Leite Fermentado Activia Zero 800g Morango Liquido</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 14,49</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9825e9ce-9543-4c2e-a52e-f4ecf784ad81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b729479a-baf6-43ed-a848-ee2c64d44a23.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Iogurte Mix Vigor Viv 140g Granola Banana Mel</t>
+          <t>Leite Fermentado Activia 450g</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56096524-cbb7-4f1e-8dd6-0d21fa22b91e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2025eeaa-c48c-4291-9c5c-484faed24f51.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Iogurte Polpa Ninho 540g</t>
+          <t>Yopro Energy Boost 15g Proteina 250ml Cafe Expresso</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/095a879c-3725-481c-9a47-270410625f8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f75fa095-0c14-40e3-881d-01f86bf630c6.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7891025124269</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sobremesa Torta Frutap 90g Trufado</t>
+          <t>Yopro Energy Boost 15g Proteina 250ml Cappuccino</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f35be9db-6006-4227-8afa-97aa348fee86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7837d4c5-0144-4b10-9ea4-60c33a4ba03f.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7891025124252</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Suco Xando 300ml Laranja</t>
+          <t>Iogurte Liquido Yopro Danone 30g Proteina 500g Morango</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35134851-8d88-467d-8c85-3e6baac2c9c3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1aa8aa26-f6e3-4187-9013-d25fe87dbde8.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7891025124207</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor Zero 90g Flocos</t>
+          <t>Leite Fermentado Activia Danone 800g Ameixa</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d98cc0e-5305-476a-b255-a4d2d62df0b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/473ab44f-73e9-4b9d-a919-026fe8f9d5f0.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7891025123453</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Danette Danone 180g Chocolate</t>
+          <t>Leite Fermentado Activia Danone 800gr Ameixa Zero</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c28581be-e7a1-4e1d-a769-c0ce704c2fd1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20c9eddd-fe4f-4c32-8b98-d883ee3e7f95.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Leite Fermentado Cafe Manha Activia 170g Linhaca/morango</t>
+          <t>Leite Fermentado Activia Danone 800g Aveia</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 7,79</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed2d2f3b-9d56-4b45-9bb8-bef0c9fec2a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4f4d722-a0fa-4e37-bb9e-e170c7eef230.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7891025124320</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 850g Mix</t>
+          <t>Leite Fermentado Activia Danone 800g Morango</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d136147b-0ee2-41a0-95a2-bdcd5e5559dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/deb40127-fbdc-4e77-9b6d-7b6a2009cbcf.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7891025123477</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 850g Ameixa</t>
+          <t>Sobremesa Frutap Patati Patata 360g Chocolate</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e56c4665-c97d-43fb-b2ba-0489aff6c54c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51a47d8d-cbd3-4699-be02-5499bb80e67f.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7896862002923</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Iog Milk Mix Serramar 1250g Morango</t>
+          <t>Iogurte Frutap Patati Patata 360g Morango</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/669ecd52-2b79-4a3c-b0b6-47192eb540f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e33f1ba-4b1f-4d52-adfe-cfe7d4db6bd3.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896862002923</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sobremesa Rebeka 80g Chocolate Tipo Brigadeirao</t>
+          <t>Bebida Láctea Frutilac 1200g Morango</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbd8ddb2-41fc-4e75-b778-72a5669402f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/befbe882-664c-469e-a94d-d4837320f101.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7896862001681</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bebida Lactea Danone 250ml Baunilha</t>
+          <t>Bebida Lactea Nescafé Chococino Frasco 270ml</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/744861c3-6519-4e74-9e8c-ba8c0d5fe447.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f336844-e793-4634-bf4b-3e8dc27230f6.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7891000389300</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Bebida A Base De Soja Yakult Tonyu 200ml Morango</t>
+          <t>Iogurte Danone Kids 150g Morango</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fb657ef-e42c-4d6a-aa5f-8200ada280c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/188ad4ee-8e2d-486e-a614-970ae594c601.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7891025124481</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Beb Lact Ferm Batavo 510g Morango</t>
+          <t>Iogurte Danone Kids 800g Morango</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2261950-97f9-441b-aa44-e623c9bd415e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1663d918-9ebe-438f-8c53-b97ed736ad23.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7891025124504</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Iogurte Frutap Patati Patata 360g Morango</t>
+          <t>Iogurte Danone Kids Polpa 510g Multi Sabores</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e33f1ba-4b1f-4d52-adfe-cfe7d4db6bd3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d99f87c-d783-408c-9f6e-6675c81f5476.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7891025124436</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia Danone 170g Morango</t>
+          <t>Iogurte Vitamina Fazendas Bela Vista 180g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be5482f0-78d1-4916-a619-7d4773b87cef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb6bbc7b-2fa7-42c9-82de-95ee52c8b790.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7896229800636</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sobremesa Vigor 180g Chocolate</t>
+          <t>Iogurte Liquido Batavo 1,150kg Morango</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e367c2d7-d5f6-4ac9-9749-69b2bbb4ec4f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dc735d3-a085-441e-90a0-dcddc85cccf2.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7891097103384</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia Danone 800g Aveia</t>
+          <t>Iogurte Liquido Batavo 170g Cereal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4f4d722-a0fa-4e37-bb9e-e170c7eef230.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79ee19af-2dd9-40cc-9f47-a403a0d8cce7.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7891097102868</t>
         </is>
       </c>
     </row>
@@ -3647,7 +4242,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Leite Ferm Elege 80g Bob Esp Uva C/6</t>
+          <t>Bebida Lactea Danone 250ml Baunilha</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3657,7 +4252,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2783462-2513-455e-8b1e-8760e92e74b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/744861c3-6519-4e74-9e8c-ba8c0d5fe447.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7891025124627</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Iogurte Nestle Grego 360g Tradicional</t>
+          <t>Iogurte Danone Com 10g Proteina 160g Original</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ff1ba1d-50a1-4315-ba21-b8e42ec9526f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93b877b7-5a63-49ec-9ad3-35f40cdd526e.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7891025124603</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Iogurte Corpus 800g Morango Liquido</t>
+          <t>Iogurte Danone Com 10g Proteina 160g Morango</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11fe4e1f-e844-4ede-ba5e-6894522e29ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1124046a-1c3e-4ba1-ac5a-5030332835da.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7891025124481</t>
         </is>
       </c>
     </row>
@@ -3728,17 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Danette Danone Cremosao 90g Doce Leite</t>
+          <t>Iogurte Danone 10g Proteina 160g Original</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1260bc7-f9bd-4aec-a2aa-9bacedc5cad1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc141b87-992f-43be-8630-d7b52bd7ad96.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7891025124603</t>
         </is>
       </c>
     </row>
@@ -3755,17 +4370,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Leite Fermentado Elege 1,150g Tradicional</t>
+          <t>Iogurte Danone Com 10g Proteina 220ml Morango</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>R$ 16,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3921d81-47cc-4dc0-b5d1-070227e86054.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f2afb6c-c9f5-4341-ae84-f8a11de0fab1.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7891025124481</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Iogurte Batavo Pense Zero 1,150kg Ameixa</t>
+          <t>Iogurte Natural Nestlé 320g Zero Lactose</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 19,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2fc6b3e-5d7f-4609-8426-0f50b645ee3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e454426a-646f-437f-ad1c-dbf43d276f58.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7891000393536</t>
         </is>
       </c>
     </row>
@@ -3809,17 +4434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bebida A Base De Aveia Naveia 1l Original</t>
+          <t>Iogurte Grego Danone Light 510g Morango</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 16,49</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29bea948-51d0-4dea-b478-cfc291f44bc3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55f2f3e9-3dd0-4441-96e1-08c21b067e78.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7891025123392</t>
         </is>
       </c>
     </row>
@@ -3836,7 +4466,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia Danone 800g Morango</t>
+          <t>Leite Fermentado Activia Polpa 340g Ameixa</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3846,7 +4476,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/deb40127-fbdc-4e77-9b6d-7b6a2009cbcf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58acf8c9-a88b-41fc-8989-27d66220bfc7.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7891025123156</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Iogurte Batavo Bob Esponja Pouch 100g Morango</t>
+          <t>Leite Fermentado Batavo Shrek480g Morango</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9aedca64-0577-43a9-8f4a-a4452810d466.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ee3d2f-dd33-477b-aac8-017e42af0b79.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7891097106613</t>
         </is>
       </c>
     </row>
@@ -3890,17 +4530,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Iogurte Danone Com 10g Proteina 160g Original</t>
+          <t>Leite Fermentado Batavo Shrek480g Uva</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93b877b7-5a63-49ec-9ad3-35f40cdd526e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d1067a4-543e-4122-b8fc-d558cef70735.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7891097106637</t>
         </is>
       </c>
     </row>
@@ -3917,17 +4562,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bebida Láctea Wheyfit Parmalat 250ml Chocolate</t>
+          <t>Bebida Vida Veg 700g Aveia</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05e7c17c-1521-4a0c-9c79-42fc68d0e4b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e32a8cde-50b0-4866-8d8a-32df74c909d5.jpg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7898958161644</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4594,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Iogurte Natural Zero Lactose Yopro Pote 160g</t>
+          <t>Iogurte Batavo Bob Esponja Pouch 100g Morango</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b197b95-3055-48e6-8cc4-b47ec682ae82.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9aedca64-0577-43a9-8f4a-a4452810d466.jpg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7891097106750</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4626,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Suco Xando 900ml Uva</t>
+          <t>Iogurte Batavo Bob Esponja Pouch 100g Vitaminas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/663d7523-eab4-4fa2-82f5-89a577e79c6a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9e16253-0567-4606-ad02-8f2e6d5c9749.jpg</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7891097106767</t>
         </is>
       </c>
     </row>
@@ -3998,17 +4658,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Iogurte Batido Fazenda Bela Vista 180g</t>
+          <t>Iogurte Batavo Probio2 170g Morango</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/915065e8-9d20-46a5-aee8-7d39596c55f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b3b6649-cba2-4f47-80a0-6c6b51aa01ab.jpg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7891097104862</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4690,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Leite Ferm Elege 80g Bob Esp Mgo C/6</t>
+          <t>Iogurte Batavo Probio2 510g Ameixa</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e97be1e1-618b-455f-aca6-ba1be22332b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9437e48-2d17-4cae-bc8d-0296dfcc13ba.jpg</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7891097106842</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4722,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Iogurte Danone Kids Polpa 510g Multi Sabores</t>
+          <t>Iogurte Batavo Probio2 510g Morango</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d99f87c-d783-408c-9f6e-6675c81f5476.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2550be42-bc03-455e-9e33-a3d19c6cd56a.jpg</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7891097104862</t>
         </is>
       </c>
     </row>
@@ -4079,17 +4754,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Iog Milk Mix Serramar 1250g Vitamina</t>
+          <t>Iogurte Grego Batavo Pense 100g Maracuja</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8193be5e-07de-47da-93bc-2809207cea5f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbf20b6d-1057-41c6-8eed-c7cd1f381b7a.jpg</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7891097106101</t>
         </is>
       </c>
     </row>
@@ -4106,17 +4786,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 850g Coco</t>
+          <t>Shake A Base Aveia Vegpro Vida Veg 250g Chocolate</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e13c7c80-4234-4eab-acd9-7f89385b9de4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/693d01f7-760d-47a7-a7f0-68fe32414b9e.jpg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7898958161958</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4818,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Bebida Lactea Yopro 1l Chocolate</t>
+          <t>Shake A Base Aveia Vegpro Vida Veg 250g Morango</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/280afcbd-85bf-4f6f-85f8-b7c7e477bc52.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e02e3efc-468d-4ca0-a468-e1406a48f5a5.jpg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7898958161958</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4850,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bebida Láctea Frutilac 850g Coco</t>
+          <t>Iogurte Batavo Probio2 170g Tradicional</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>R$ 6,89</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4246e1b-009a-4d2b-b8fa-3cd5b67d8d81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c21d9f78-aa9a-4621-9f7e-edc2cff0ca87.jpg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7891097104893</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4882,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Iogurte Mix Vigor Viv 140g Granola/ Castanha</t>
+          <t>Beb Veg A Tal Da Castanha 1l Caju/para</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d4c8b25-e329-419e-a996-247a8f65ffc2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8b87384-4339-4c84-a6af-c25174f7d448.jpg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7898955705162</t>
         </is>
       </c>
     </row>
@@ -4214,17 +4914,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Iogurte Milk Mix Serramar 180g Morango</t>
+          <t>Beb Veg A Tal Da Castanha 1l Chocnuts Zero</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c909a079-053c-452d-b12d-19d3b0484de6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69bf2150-5f24-4d3c-89f8-64fbdee6657b.jpg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7898955705179</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4946,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Yopro Danone 15g Proteina 250g Morango</t>
+          <t>Beb Veg A Tal Da Castanha 1l Mixed Nuts</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfd80b75-5b78-4f97-a57c-41da2a9ab799.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/078bf3b9-fbfb-4688-98f1-ca3768d5db81.jpg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7898955705223</t>
         </is>
       </c>
     </row>
@@ -4268,17 +4978,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 450g Morango</t>
+          <t>Beb Veg A Tal Da Castanha 1l Original</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31a64b79-de99-4536-b855-7902adae024b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf5c96f5-6384-4b79-b387-ce905ed261b3.jpg</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7898955705049</t>
         </is>
       </c>
     </row>
@@ -4295,17 +5010,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Iogurte Líquido Danone Corpus Triplo Zero 800g Vitamina De Frutas</t>
+          <t>Danette Danone 180g Chocolate Branco</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56c56f61-f891-4daa-aa94-2700e81eb906.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0eae4cd3-0afc-40f1-a0ef-219e37841682.jpg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7891025110897</t>
         </is>
       </c>
     </row>
@@ -4322,17 +5042,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Iogurte Grego Vigor 90g Torta De Limao</t>
+          <t>Iogurte Danone Quaker 170g Banana Mel E Aveia</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/701d26a0-a8f8-4a41-a4e1-64efa2346d30.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e914ed7-c7cd-4924-80cc-7d54cad82883.jpg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7891025124849</t>
         </is>
       </c>
     </row>
@@ -4349,17 +5074,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Iogurte Yopro Zero Açucar Danone 250ml Doce Leite</t>
+          <t>Iogurte Danone Quaker 170g Batido Com Aveia</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4754383-6207-4b08-9a4c-2829011d665d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a663a517-102b-4920-870a-c7f817f17c6c.jpg</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7891025124849</t>
         </is>
       </c>
     </row>
@@ -4376,17 +5106,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Yakult Hiline So Para Mulheres 100ml</t>
+          <t>Iogurte Danone Quaker 340g Morango E Aveia</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9254cc3e-304c-43d6-8dc8-d9f247ec5b42.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6899eaa-4f2c-45a2-8b85-13966be094f7.jpg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7891025124702</t>
         </is>
       </c>
     </row>
@@ -4403,17 +5138,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Leite Fermentado Cafe Manha Activia 170g Amaranto</t>
+          <t>Iogurte Danone Quaker 340g Tradicional E Aveia</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>R$ 7,79</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd16155f-1bb1-417a-8eb1-33a6ffca507b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a388832a-a45c-4c37-860c-9e8ffbd1a6fc.jpg</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7891025124702</t>
         </is>
       </c>
     </row>
@@ -4430,17 +5170,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Iogurte Batavo Probio2 170g Morango</t>
+          <t>Iog Milk Mix Serramar 1250g Morango</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b3b6649-cba2-4f47-80a0-6c6b51aa01ab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/669ecd52-2b79-4a3c-b0b6-47192eb540f5.jpg</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7897951614621</t>
         </is>
       </c>
     </row>
@@ -4457,17 +5202,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bebida Veg Notmilk 1l Semi Desnatado</t>
+          <t>Iog Milk Mix Serramar 1250g Vitamina</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee928a96-960f-41c9-a029-e3461729a9dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8193be5e-07de-47da-93bc-2809207cea5f.jpg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7897951614621</t>
         </is>
       </c>
     </row>
@@ -4484,17 +5234,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Iogurte Danone 10g Proteina 160g Original</t>
+          <t>Iog Batido Serramar 180g</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 2,39</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc141b87-992f-43be-8630-d7b52bd7ad96.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4291c76d-dfab-40be-bf15-f5087e1fb169.jpg</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7897951614843</t>
         </is>
       </c>
     </row>
@@ -4511,17 +5266,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bebida Veg Notmilk 1l Integral</t>
+          <t>Iog High Protein Serramar 220g Morango</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e088509e-7bb1-4320-8fce-67f62b4b5829.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d43b9f38-6607-4658-95e5-f027594fe20e.jpg</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7897951670757</t>
         </is>
       </c>
     </row>
@@ -4538,17 +5298,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Iogurte Grego Danone Light 510g Morango</t>
+          <t>Iogurte Milk Mix Serramar 180g</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>R$ 16,49</t>
+          <t>R$ 2,59</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55f2f3e9-3dd0-4441-96e1-08c21b067e78.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a81f4c86-6425-40bd-ab09-fd46fa1d50b7.jpg</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7897951614621</t>
         </is>
       </c>
     </row>
@@ -4565,17 +5330,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Iogurte Mix Vigor Viv 140g Granola Cacau</t>
+          <t>Iogurte Milk Mix Serramar 180g Morango</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86f75ba0-27da-43d4-8e95-ff5fed299b45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c909a079-053c-452d-b12d-19d3b0484de6.jpg</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7897951614621</t>
         </is>
       </c>
     </row>
@@ -4605,6 +5375,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4fe21cb-060f-43e1-98b7-bacf4238597f.jpg</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7897951614621</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4619,17 +5394,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Danoninho Ice Mix Pouch 70g Morango</t>
+          <t>Iogurte Probio2 Batavo 1,150g Ameixa</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7126c8ce-0ba0-435e-aea4-024c72244d2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c64a3284-72a6-40db-8c00-e5c95ddb2e42.jpg</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7891097106842</t>
         </is>
       </c>
     </row>
@@ -4646,17 +5426,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bebida Láctea Wheyfit Parmalat 250ml Baunilha</t>
+          <t>Iogurte Probio2 Batavo 1,150g Tradicional</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79850b1f-2c5f-4145-9de9-9a36d393f6cc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34b5f784-d08a-4397-ab92-b9fb58193dab.jpg</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7891097107030</t>
         </is>
       </c>
     </row>
@@ -4673,17 +5458,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia 510g Morango</t>
+          <t>Pudim Leite Condensando Batavo 100g</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>R$ 18,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99c0816b-b170-44dc-a60f-ee9ba389e325.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b436010f-578e-407a-8b24-a7a7536329e2.jpg</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>7898755200027</t>
         </is>
       </c>
     </row>
@@ -4700,17 +5490,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia Danone 800gr Ameixa Zero</t>
+          <t>Iogurte Pense Zero Batavo 510g Morango</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20c9eddd-fe4f-4c32-8b98-d883ee3e7f95.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26ae4db6-afa2-498d-a232-d340d66c276a.jpg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7891025125372</t>
         </is>
       </c>
     </row>
@@ -4727,17 +5522,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Iogurte Yopro Pouch Morango 160g Zer Açucar</t>
+          <t>Coalhada Seca Damm 120g</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf1349fa-656a-4a82-ba2d-5d2ee1b621d2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7896079904133</t>
         </is>
       </c>
     </row>
@@ -4754,17 +5554,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Leite Fermentado Zero Lactose Activia 510g Ameixa</t>
+          <t>Iogurte Shey Verde Campo 140g Tradicional</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8db8bfbd-0bbf-40f4-8b36-925deeb94d53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa17afa5-5d93-486e-891a-50e7d3673b5f.jpg</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>7898205925388</t>
         </is>
       </c>
     </row>
@@ -4781,7 +5586,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Leite Fermentado Serramar 900g</t>
+          <t>Bebida Lactea 23g Proteinas Yopro 250g Chocolate</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4791,7 +5596,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11dfd0b5-4b26-4295-9a10-21ce22ad82e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7900304-4440-4a17-b6dc-c4531610fb70.jpg</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
@@ -4808,17 +5618,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Iogurte Polpa Neston 510g 2 Sabores</t>
+          <t>Iog Grego Nestle 90g Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39353e32-af66-4d72-9c57-15f5e6c62655.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c6b138c-9d03-4a42-b8ee-8418f2d8df07.jpg</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7896625211111</t>
         </is>
       </c>
     </row>
@@ -4835,17 +5650,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Leite Fermentado Activia Zero 800g Morango Liquido</t>
+          <t>Iogurte Zero Batido Nestle 1150g</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b729479a-baf6-43ed-a848-ee2c64d44a23.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7891025125365</t>
         </is>
       </c>
     </row>
@@ -4862,17 +5682,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Iogurte Líquido Molico 850g Morango</t>
+          <t>Iogurte Zero Danone 1200g Batido</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cf986bf-859b-4bc8-8dc6-c8ba5bee466f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3263d25-d0d6-4470-b46b-0da92606d548.jpg</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7891025125365</t>
         </is>
       </c>
     </row>
@@ -4889,17 +5714,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Iogurte Danone Com 10g Proteina 220ml Morango</t>
+          <t>Iogurte Zero Danone 1200g Morango</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 19,49</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f2afb6c-c9f5-4341-ae84-f8a11de0fab1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3dd8cf29-0ea5-4379-8a08-f407690878d5.jpg</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7891025125372</t>
         </is>
       </c>
     </row>
@@ -4916,17 +5746,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 450g Pedaços De Morango</t>
+          <t>Leite Fermentado Chamyto C/6un 480g Morango</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>R$ 9,89</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2a18853-3f1d-4b71-b1f6-1ab79436478e.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7898755200263</t>
         </is>
       </c>
     </row>
@@ -4943,17 +5778,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Iogurte Nestlé Bicamada 150g Frutas Vermelhas</t>
+          <t>Leite Fermentado Chamyto C/6un 480g Tradicional</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0326cbf6-c91e-4b73-b925-28f037a0be3c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f982d2bf-5a81-40c1-b954-8e679ee8f4e8.jpg</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7898755200263</t>
         </is>
       </c>
     </row>
@@ -4970,17 +5810,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Bebida Láctea Wheyfit Parmalat 250ml Coco E Batata Doce</t>
+          <t>Leite Fermentado Chamyto C/6un 480g Uva</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a62c3ce9-da54-47f5-866b-ff4a37efdd24.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/814fe5ea-8a36-4429-a82f-139e4e95da50.jpg</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7898755200270</t>
         </is>
       </c>
     </row>
@@ -4997,17 +5842,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Polpa Corpus 540g Morango</t>
+          <t>Sobremesa Chandelle 90g Pudim Brigadeiro</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/585b3b52-ddeb-4dab-a0eb-1556936a4034.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5dade5f-412a-4ea3-8d68-4819a98121f2.jpg</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7898755200188</t>
         </is>
       </c>
     </row>
@@ -5024,17 +5874,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Petit Suisse Frutapinho 320g Morango</t>
+          <t>Sobremesa Flan Chandelle 200g Caramelo</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,89</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4360158e-3cf0-4c3c-a0c1-07f0acb9dd43.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8781fa31-c039-4487-a682-d7d8566690de.jpg</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7898755200126</t>
         </is>
       </c>
     </row>
@@ -5051,17 +5906,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Iogurte Danone Kids 800g Morango</t>
+          <t>Sobremesa Itambe 90g Chocolate E Chantilly</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1663d918-9ebe-438f-8c53-b97ed736ad23.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f464762c-7f2f-4fb6-a110-f4a90abdd464.jpg</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7896051168300</t>
         </is>
       </c>
     </row>
@@ -5078,17 +5938,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Bebida Veg Notmilk 1l Chocolate</t>
+          <t>Iogurte Whey 11 Verde Campo 140g Maracuja</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6695484-755e-4878-ab93-13d23b4cf13c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a48cb332-66a3-46c5-99c9-b74738848c41.jpg</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7898205925401</t>
         </is>
       </c>
     </row>
@@ -5105,17 +5970,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Iogurte Pense Zero Batavo 510g Morango</t>
+          <t>Sobremesa Torta Frutap 90g Trufado</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26ae4db6-afa2-498d-a232-d340d66c276a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f35be9db-6006-4227-8afa-97aa348fee86.jpg</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>7896862003197</t>
         </is>
       </c>
     </row>
@@ -5132,7 +6002,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 450g Mix</t>
+          <t>Bebida Láctea Wheyfit Parmalat 250ml Chocolate</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5142,7 +6012,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/073e7529-fc51-4382-9f34-01ae32c2d25c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05e7c17c-1521-4a0c-9c79-42fc68d0e4b6.jpg</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
@@ -5159,17 +6034,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Iogurte Natural Nestlé 320g Zero Lactose</t>
+          <t>Bebida Vegetal Not Milk 1l Barista</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e454426a-646f-437f-ad1c-dbf43d276f58.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22725e06-8280-4838-951e-e997ad76c275.jpg</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7898686950947</t>
         </is>
       </c>
     </row>
@@ -5186,17 +6066,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Iog Batavo Surpresa 110g Morango</t>
+          <t>Bebida Not Milk 750ml Proteina</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6462e76-ceb5-438d-b83a-d5154216ebdb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f976ac94-7820-4f47-96e1-e716c327919b.jpg</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>7898686951142</t>
         </is>
       </c>
     </row>
@@ -5213,17 +6098,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Yopro Pouch Açai C/banana 160g</t>
+          <t>Bebida Not Shake Protein 250ml Café Caramelo</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b57754a-93c8-480f-a867-670db55a812d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e86e1f6-e15a-4cac-b7e9-fbc946b32986.jpg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7898686950794</t>
         </is>
       </c>
     </row>
@@ -5240,17 +6130,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 115g Com Cereais Chocolate</t>
+          <t>Bebida Not Shake Protein 250ml Chai Latte</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e84c3f7d-3dbe-4565-8423-ed44dfbc59ce.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7898686951159</t>
         </is>
       </c>
     </row>
@@ -5267,17 +6162,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Iogurte Frutap 115g Morango Cereais Coloridos</t>
+          <t>Bebida Not Shake Protein 250ml Morango Com Tâmara</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74db208e-6953-4169-b705-775ec353206a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85a02c7a-5caf-4a19-a7c3-580ede828272.jpg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7898686950978</t>
         </is>
       </c>
     </row>
@@ -5294,17 +6194,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Bebida Lactea Aurora Uva Verde 850gr</t>
+          <t>Bebida Not Shake Protein 250ml Pipoca Caramelizada</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/539be35b-0cf8-4d2b-88a2-4db383f2edd4.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>7898686951166</t>
         </is>
       </c>
     </row>
@@ -5321,17 +6226,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Batavo 170g Cereal</t>
+          <t>Bebida Vegetal Not Milk 1l Aveia</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>R$ 3,39</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79ee19af-2dd9-40cc-9f47-a403a0d8cce7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4457f0b9-f79c-45cd-8790-1dab3344fc81.jpg</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7898686951128</t>
         </is>
       </c>
     </row>
@@ -5348,17 +6258,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Queijo Mozzarela De Bufula D`oro 155g Bocconcini</t>
+          <t>Bebida Vegetal Not Milk 200ml Chocolate</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4d7da40-f8be-4402-8c86-28a7552eb19d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2ff8ffa-1bda-477b-93bc-142dbf9facbe.jpg</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7898686950312</t>
         </is>
       </c>
     </row>
@@ -5375,17 +6290,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Iogurte Milk Mix Serramar 180g</t>
+          <t>Bebida Vegetal Bemsei 1l Original</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>R$ 2,59</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a81f4c86-6425-40bd-ab09-fd46fa1d50b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3868ea2a-b40a-4fb6-8983-c076cec7a7a1.jpg</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>7896293808217</t>
         </is>
       </c>
     </row>
@@ -5402,17 +6322,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Bebida Láctea Wheyfit Parmalat 250ml Abacate</t>
+          <t>Bebida Láctea Whey 23g De Proteina Piracajunba 250ml Zero Lactose Amendoim</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2a0e55b-751c-45fa-b2c5-07a852b7ebe3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f05a465-707e-425b-9985-10c8e2f73ccb.jpg</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7898215157526</t>
         </is>
       </c>
     </row>
@@ -5429,17 +6354,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Bebida Láctea Wheyfit Parmalat 250ml Milho Verde</t>
+          <t>Bebida Láctea Whey 23g De Proteina Piracajunba 250ml Zero Lactose Cacau</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87921f64-9076-481c-8110-c72660a9e7ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92b795fa-e731-4310-88cc-a61aa55b3c08.jpg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>7898215153207</t>
         </is>
       </c>
     </row>
@@ -5456,17 +6386,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Iogurte Danone 800g Banana Aveia E Mel</t>
+          <t>Bebida Láctea Whey 23g De Proteina Piracajunba 250ml Zero Lactose Fr Vermelhas</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aec63b1-c90c-4acd-84da-b92e89bd696f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7caddd03-2070-45e2-8961-5681a84201d9.jpg</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7898215153207</t>
         </is>
       </c>
     </row>
@@ -5483,17 +6418,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Iogurte 3 Grãos Manga E Maracujá Viv Vigor Garrafa 800g</t>
+          <t>Bebida Á Base De Aveia Naveia 1l Barista</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4708fc8a-aad0-441c-bc31-2821928c6378.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a4471de-f43f-4dec-8a77-8bd1a758d579.jpg</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>7898994972112</t>
         </is>
       </c>
     </row>
@@ -5510,17 +6450,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Iogurte Liquido Yopro Danone 15g Proteina 500g Morango</t>
+          <t>Bebida Á Base De Aveia Naveia 1l Chocolate</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1aa8aa26-f6e3-4187-9013-d25fe87dbde8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d10fca46-7e90-44c7-8bb7-c279271fb139.jpg</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>7898971454150</t>
         </is>
       </c>
     </row>
@@ -5537,17 +6482,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Iogurte Danone Com 10g Proteina 220ml Coco</t>
+          <t>Bebida Á Base De Aveia Naveia 1l Origina Extra</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbcb6e74-2c96-4423-8423-ce4ccfe35d86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e603b23b-fcaa-4447-8935-61df8c13f513.jpg</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>7898994972112</t>
         </is>
       </c>
     </row>
@@ -5564,17 +6514,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Danoninho Bom Dia 70g Banana Com Aveia</t>
+          <t>Bebida Á Base De Aveia Naveia 250ml Barista</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>R$ 4,79</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ff68d5d-5154-4d10-8372-2d71006bd15d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80c41cfc-7e2a-4285-bb16-41708d786ec8.jpg</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>7898971454143</t>
         </is>
       </c>
     </row>
@@ -5591,7 +6546,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Sobremesa Flan Baunilha Vigor 190g</t>
+          <t>Bebida Á Base De Aveia Naveia 250ml Chocolate</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5601,7 +6556,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5eeb494b-fd78-48c6-a28c-6c6ea1ae008d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c948100f-73e9-46bd-b411-bd36bbcdd207.jpg</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7898971454150</t>
         </is>
       </c>
     </row>
@@ -5618,17 +6578,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Iogurte Danone Quaker 170g Banana Mel E Aveia</t>
+          <t>Shake Proteico Naveia 250ml Banana Com Amendoim</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e914ed7-c7cd-4924-80cc-7d54cad82883.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8ae70a0-4c46-49e0-b7d9-93c75e775a17.jpg</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7898971454228</t>
         </is>
       </c>
     </row>
@@ -5645,17 +6610,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Leite Fermentado Batavo Shrek480g Morango</t>
+          <t>Shake Proteico Naveia 250ml Chocolate</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ee3d2f-dd33-477b-aac8-017e42af0b79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/feeab380-0ec7-46e1-8335-65d66a86669f.jpg</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>7898971454228</t>
         </is>
       </c>
     </row>
@@ -5672,17 +6642,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Iogurte Batavo Probio2 170g Tradicional</t>
+          <t>Shake Proteico Naveia 250ml Jabuticaba</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c21d9f78-aa9a-4621-9f7e-edc2cff0ca87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94ed9d66-1bf4-4bf2-831b-244535586fb1.jpg</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>7898971454211</t>
         </is>
       </c>
     </row>
@@ -5699,17 +6674,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Leite Fermentado Batavo Shrek480g Uva</t>
+          <t>Shake Proteico Naveia 250ml Vitamina De Fruta</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d1067a4-543e-4122-b8fc-d558cef70735.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5d45e1b-4f48-4035-9051-6160497b9c44.jpg</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>7898971454198</t>
         </is>
       </c>
     </row>
@@ -5726,17 +6706,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Danoninho Bom Dia 70g Morango Com Aveia</t>
+          <t>Sobremesa Verde Campo 200g Zero Lactose Banana E Canela</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>R$ 4,79</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66997fbd-7538-46b3-9bf9-39447ab3244a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64c653eb-41cf-4ecc-9127-61423cc89051.jpg</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>7898205925647</t>
         </is>
       </c>
     </row>
@@ -5753,17 +6738,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Iogurte Framboesa E Limão Vigor Viv 3 Grãos Garrafa 800g</t>
+          <t>Sobremesa Verde Campo 200g Zero Lactose Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/171c7d76-4d03-49ce-bcc2-dc838fd4cf27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5caa2f58-47c3-4bb1-9d5d-905eabb7d5df.jpg</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>7898205925647</t>
         </is>
       </c>
     </row>
@@ -5780,17 +6770,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Sobremesa Frutap Patati Patata 360g Chocolate</t>
+          <t>Iogurte Líquido Molico 850g Morango</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51a47d8d-cbd3-4699-be02-5499bb80e67f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cf986bf-859b-4bc8-8dc6-c8ba5bee466f.jpg</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>7891000305775</t>
         </is>
       </c>
     </row>
@@ -5807,2258 +6802,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Iogurte Vegetal Coco Vida Veg Iogveg 500g</t>
+          <t>Bebida Láctea Danone Yopro Chocolate 250ml</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ead7b735-27a1-4215-8b2c-698e5de51049.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Bebida Lactea Uht Nescafe Cappuccino Com Canela 270ml</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af9988e4-5273-421a-8672-f29159b5e057.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Iogurte Batavo Bob Esponja Pouch 100g Vitaminas</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>R$ 3,29</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9e16253-0567-4606-ad02-8f2e6d5c9749.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Leite Fermentado Yakult 48og C/6un Pêssego</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daca7dfb-9c1d-4a4a-ab29-bc1216906ffc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Iogurte Grego Vida Veg150g Morango</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bf6a092-5bfd-4d9e-b5cd-cc48af48df0d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Iogurte Protein Vida Veg 250g Cookies E Cream</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>R$ 11,79</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Bebida Lactea Nescafé Chococino Frasco 270ml</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f336844-e793-4634-bf4b-3e8dc27230f6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 23g Proteinas Yopro 250g Chocolate</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7900304-4440-4a17-b6dc-c4531610fb70.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Leite Fermentado Activia 510g Mamao E Cereais</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>R$ 18,49</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82a09d5c-5a75-4e68-8858-59cc959ff6b4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Iogurte Frutap 115g Com Confeitos Chocolate</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>R$ 4,39</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29cb4d9f-4413-4617-95c4-159b8cf7d8cc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Iogurte Danone Quaker 340g Morango E Aveia</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>R$ 10,98</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6899eaa-4f2c-45a2-8b85-13966be094f7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Iogurte Danone Quaker 340g Tradicional E Aveia</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>R$ 10,98</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a388832a-a45c-4c37-860c-9e8ffbd1a6fc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Iog Whey 250g Morango Vc</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/684a15d5-1567-4bea-a9c7-a11c6eec4bf3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Iogurte Lacfree Verde Campo 500g Banana Maça E Mamão</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dddc8cb0-7f0d-45a0-9c52-d696ce22a93b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Iog Lacfree 500g S/adoc Natural Vc</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9da6da8e-8358-4587-a75a-417adebb867c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Iogurte Batavo Probio2 510g Ameixa</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9437e48-2d17-4cae-bc8d-0296dfcc13ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Beb Veg A Tal Da Castanha 1l Original</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf5c96f5-6384-4b79-b387-ce905ed261b3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Danette Danone 180g Chocolate Branco</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0eae4cd3-0afc-40f1-a0ef-219e37841682.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Iogurte Probio2 Batavo 1,150g Ameixa</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c64a3284-72a6-40db-8c00-e5c95ddb2e42.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Iog Whey 250g Baunilha Vc</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd234c16-c1c0-40ac-ba26-b2934a6316f4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Iogurte Vida Veg 500g Morango</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4e97272-d5fd-4044-bc45-31086096a89b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Mousse De Chocolate Vida Veg 200g</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/070fc182-abe9-41cb-9195-2f411eb2b575.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Iog Batido Serramar 180g</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>R$ 2,39</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4291c76d-dfab-40be-bf15-f5087e1fb169.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Iogurte Probio2 Batavo 1,150g Morango</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/629a60ca-c9f8-45ee-b79f-8f66f9e6a12e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Iog Whey 250g Cookies E Cream Vc</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b443a09-0308-4f83-9d87-e6dd98c60228.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Leite Fermentado Zero Lactose Activia 510g Morango</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79a50ad3-0126-4019-95dc-9116e9b70964.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Iogurte Zero Danone 1200g Morango</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>R$ 19,49</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3dd8cf29-0ea5-4379-8a08-f407690878d5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Iogurte Liquido Vigor 800g 3 Grãos Tradicional</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2f11763-a44f-4e8c-9086-ab67bb4b8a0d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Bebida Lactea Nescafé Frasco 270ml Latte Com Café</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8588711-4169-4e7c-a2cd-23d95747eec6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Iogurte Probio2 Batavo 1,150g Tradicional</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34b5f784-d08a-4397-ab92-b9fb58193dab.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Iogurte Vida Veg Banana, Mamão E Maçã 500g</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55cef77d-05c4-40b8-be7b-509cb0720b8f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Iogurte Protein Vida Veg Pote 160g Morango</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Beb Veg A Tal Da Castanha 1l Mixed Nuts</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/078bf3b9-fbfb-4688-98f1-ca3768d5db81.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Iogurte Protein Vida Veg Pote 160g Tradicional</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Bebida Not Shake Protein 250ml Morango Com Tâmara</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85a02c7a-5caf-4a19-a7c3-580ede828272.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Petit Suisse Vigor 320g Morango</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>R$ 9,79</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aba4129f-21ed-463b-803d-a5b154360e31.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 23g Proteinas Yopro 250g Baunilha</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/087ba9aa-5549-43a4-92e0-080fec8af23e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Iogurte Vitamina Fazendas Bela Vista 180g</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>R$ 3,79</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb6bbc7b-2fa7-42c9-82de-95ee52c8b790.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Iog High Protein Serramar 220g Morango</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d43b9f38-6607-4658-95e5-f027594fe20e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Leite Fermentado Activia Polpa 340g Ameixa</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58acf8c9-a88b-41fc-8989-27d66220bfc7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Beb Veg A Tal Da Castanha 1l Chocnuts Zero</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69bf2150-5f24-4d3c-89f8-64fbdee6657b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Bebida Vegetal Not Milk 200ml Chocolate</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2ff8ffa-1bda-477b-93bc-142dbf9facbe.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Iogurte Whey 11 Verde Campo 140g Maracuja</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a48cb332-66a3-46c5-99c9-b74738848c41.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Iogurte Whey 11 Verde Campo 140g Frutas Vermelhas</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/678af745-a453-4f43-b4dc-31950fcc311d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Iogurte Zero Danone 1200g Batido</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3263d25-d0d6-4470-b46b-0da92606d548.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Shake A Base Aveia Vegpro Vida Veg 250g Chocolate</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/693d01f7-760d-47a7-a7f0-68fe32414b9e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Shake A Base Aveia Vegpro Vida Veg 250g Morango</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e02e3efc-468d-4ca0-a468-e1406a48f5a5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Iogurte Grego Nestle 90g Calda De Limao</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>R$ 3,29</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b90b2b1-dec0-4e9d-bcf2-b9814d35bbab.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Bebida Vegetal Not Milk 1l Aveia</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4457f0b9-f79c-45cd-8790-1dab3344fc81.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Iog Kefir Lacfree Verde Campo 500g Tradicional</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>R$ 13,49</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c510a22a-149f-4806-8893-6cb73e5e05ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Iogurte Shey Verde Campo 140g Tradicional</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa17afa5-5d93-486e-891a-50e7d3673b5f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Bebida Á Base De Aveia Naveia 1l Chocolate</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d10fca46-7e90-44c7-8bb7-c279271fb139.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Iogurte Natural Nestle 320g Desnatado</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be500841-9868-4d13-94c1-063cadee2063.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Bebida Not Shake Protein 250ml Café Caramelo</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e86e1f6-e15a-4cac-b7e9-fbc946b32986.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Iog Prob Morango 170g Vc</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>R$ 5,39</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24b0ffe4-339b-46ce-9369-03d77c51b01c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Bebida Vida Veg Coffee 240g Chocolate</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8106400e-edc0-4920-aecf-22d14fed01ea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Sobremesa Chandelle 90g Pudim Brigadeiro</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>R$ 4,69</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5dade5f-412a-4ea3-8d68-4819a98121f2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Sobremesa Flan Chandelle 200g Caramelo</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>R$ 5,89</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8781fa31-c039-4487-a682-d7d8566690de.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Bebida Vegetal Not Milk 1l Barista</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22725e06-8280-4838-951e-e997ad76c275.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Iog Kefir Lacfree Verde Campo 500g Morango</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/519412e1-4406-488f-8c76-dee2da89da87.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Bebida Not Shake Protein 250ml Chai Latte</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Bebida Vida Veg 700g Aveia</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e32a8cde-50b0-4866-8d8a-32df74c909d5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Bebida Not Shake Protein 250ml Pipoca Caramelizada</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Bebida Á Base De Aveia Naveia 250ml Chocolate</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c948100f-73e9-46bd-b411-bd36bbcdd207.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Bebida Vida Veg 700g Amêndoas</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce78dcaf-d0f5-4382-ac4d-f643141c78d8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Bebida Vida Veg 700g Coco</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae9162d7-7da6-4fa2-81e2-d3cb0c587d74.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Beb Veg A Tal Da Castanha 1l Caju/para</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8b87384-4339-4c84-a6af-c25174f7d448.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Coalhada Seca Damm 120g</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Bebida Not Milk 750ml Proteina</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f976ac94-7820-4f47-96e1-e716c327919b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Iogurte Vida Veg 500g Tradicional Zero Açucar</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>R$ 15,49</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0af7651-c19b-4a2d-8516-82f5fd98ed53.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Iogurte Zero Batido Nestle 1150g</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Leite Fermentado Chamyto C/6un 480g Tradicional</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>R$ 8,49</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f982d2bf-5a81-40c1-b954-8e679ee8f4e8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Leite Fermentado Chamyto C/6un 480g Uva</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>R$ 8,49</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/814fe5ea-8a36-4429-a82f-139e4e95da50.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Bebida Vegetal Bemsei 1l Cacau</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0cee256-1b11-4cb8-9c39-407f2f8f5932.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Bebida Vegetal Bemsei 1l Original</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3868ea2a-b40a-4fb6-8983-c076cec7a7a1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Bebida Á Base De Aveia Naveia 1l Barista</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a4471de-f43f-4dec-8a77-8bd1a758d579.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Bebida Á Base De Aveia Naveia 1l Origina Extra</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e603b23b-fcaa-4447-8935-61df8c13f513.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Bebida Á Base De Aveia Naveia 250ml Barista</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80c41cfc-7e2a-4285-bb16-41708d786ec8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Shake Proteico Naveia 250ml Banana Com Amendoim</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8ae70a0-4c46-49e0-b7d9-93c75e775a17.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Shake Proteico Naveia 250ml Chocolate</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/feeab380-0ec7-46e1-8335-65d66a86669f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Shake Proteico Naveia 250ml Jabuticaba</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94ed9d66-1bf4-4bf2-831b-244535586fb1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Shake Proteico Naveia 250ml Vitamina De Fruta</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5d45e1b-4f48-4035-9051-6160497b9c44.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Sobremesa Verde Campo 200g Zero Lactose Banana E Canela</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64c653eb-41cf-4ecc-9127-61423cc89051.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Iogurtes</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Sobremesa Verde Campo 200g Zero Lactose Frutas Vermelhas</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5caa2f58-47c3-4bb1-9d5d-905eabb7d5df.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f40fae4f-38d3-4af4-a297-1258c76b301e.jpg</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
